--- a/medicine/Enfance/Florence_Dupré_la_Tour/Florence_Dupré_la_Tour.xlsx
+++ b/medicine/Enfance/Florence_Dupré_la_Tour/Florence_Dupré_la_Tour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Florence_Dupr%C3%A9_la_Tour</t>
+          <t>Florence_Dupré_la_Tour</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Florence Dupré la Tour (née le 15 février 1978 à Buenos Aires) est une dessinatrice et autrice française de bande dessinée.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Florence_Dupr%C3%A9_la_Tour</t>
+          <t>Florence_Dupré_la_Tour</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Née en 1978 à Buenos Aires, dans une famille d'expatriés[1], Florence Dupré la Tour suit le cursus de l'école Émile Cohl à Lyon, en spécialité édition[2]. Une fois diplômée, elle travaille dans l'animation. Admirative du travail de Joann Sfar, elle lui écrit et il lui propose de collaborer pour la série animée Petit Vampire[3]. Sfar, qui dirige alors la collection Bayou chez Gallimard, publie le premier ouvrage dont Dupré la Tour est l'autrice (dessins et scénario), Capucin : La Mauvaise Pente, en 2006. L'ouvrage est en sélection officielle du FIBD d'Angoulême en 2007.
-Elle publie aussi pour la jeunesse et co-scénarise avec sa sœur jumelle, Bénédicte Dupré la Tour[4], la série Borgnol (Gallimard). Elle s'essaye au blog BD avec Cigish ou le maître du je, récit performatif multimédia qui est ensuite publié en album chez Ankama. Par la suite, Florence Dupré la Tour devient enseignante à l'école Émile Cohl[2] jusqu'en 2021.
-Elle entame une œuvre autobiographique à partir de 2016, avec Cruelle, aux éditions Dargaud. Puis, en 2020, elle publie le tome 1 de Pucelle[3], intitulé Débutante, aux éditions Dargaud. L'ouvrage fait partie de la sélection pour le grand prix de la critique 2021[5] et pour le fauve d'or au Festival d'Angoulême 2021[6]. Le tome 2, Confirmée, paraît en 2021. Il est également en Sélection officielle au Festival d'Angoulême 2022.
-Sa nouvelle série de bande dessinée, Jumelle, commence en 2023, avec son premier tome Inséparables. Lors de sa parution, Télérama écrit : « Après les formidables Cruelle et Pucelle, Florence Dupré La Tour continue de revisiter son enfance en l’éclairant sous l’angle de sa gémellité. Expliquant le bonheur de la fusion, dès l’utérus maternel, avec une autre soi-même ; la complicité avec sa sœur Bénédicte, qui exclut tout être extérieur au duo ; et puis la douloureuse différenciation qui s’installe avec les années[4]. ».
-Elle indique en mars 2023 : « j’ai eu besoin de revenir à des techniques manuelles, traditionnelles. J’utilise maintenant ma main, un stylo, un crayon. J’ai besoin d’avoir des sensations que je perds avec le numérique. J’ai travaillé à l’aquarelle, au Bic 4 couleurs, au fusain, à la gouache.. et là je me mets à la peinture à l’huile[4]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1978 à Buenos Aires, dans une famille d'expatriés, Florence Dupré la Tour suit le cursus de l'école Émile Cohl à Lyon, en spécialité édition. Une fois diplômée, elle travaille dans l'animation. Admirative du travail de Joann Sfar, elle lui écrit et il lui propose de collaborer pour la série animée Petit Vampire. Sfar, qui dirige alors la collection Bayou chez Gallimard, publie le premier ouvrage dont Dupré la Tour est l'autrice (dessins et scénario), Capucin : La Mauvaise Pente, en 2006. L'ouvrage est en sélection officielle du FIBD d'Angoulême en 2007.
+Elle publie aussi pour la jeunesse et co-scénarise avec sa sœur jumelle, Bénédicte Dupré la Tour, la série Borgnol (Gallimard). Elle s'essaye au blog BD avec Cigish ou le maître du je, récit performatif multimédia qui est ensuite publié en album chez Ankama. Par la suite, Florence Dupré la Tour devient enseignante à l'école Émile Cohl jusqu'en 2021.
+Elle entame une œuvre autobiographique à partir de 2016, avec Cruelle, aux éditions Dargaud. Puis, en 2020, elle publie le tome 1 de Pucelle, intitulé Débutante, aux éditions Dargaud. L'ouvrage fait partie de la sélection pour le grand prix de la critique 2021 et pour le fauve d'or au Festival d'Angoulême 2021. Le tome 2, Confirmée, paraît en 2021. Il est également en Sélection officielle au Festival d'Angoulême 2022.
+Sa nouvelle série de bande dessinée, Jumelle, commence en 2023, avec son premier tome Inséparables. Lors de sa parution, Télérama écrit : « Après les formidables Cruelle et Pucelle, Florence Dupré La Tour continue de revisiter son enfance en l’éclairant sous l’angle de sa gémellité. Expliquant le bonheur de la fusion, dès l’utérus maternel, avec une autre soi-même ; la complicité avec sa sœur Bénédicte, qui exclut tout être extérieur au duo ; et puis la douloureuse différenciation qui s’installe avec les années. ».
+Elle indique en mars 2023 : « j’ai eu besoin de revenir à des techniques manuelles, traditionnelles. J’utilise maintenant ma main, un stylo, un crayon. J’ai besoin d’avoir des sensations que je perds avec le numérique. J’ai travaillé à l’aquarelle, au Bic 4 couleurs, au fusain, à la gouache.. et là je me mets à la peinture à l’huile. »
 </t>
         </is>
       </c>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Florence_Dupr%C3%A9_la_Tour</t>
+          <t>Florence_Dupré_la_Tour</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Bande dessinée
-Capucin, collection Bayou, Gallimard
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Capucin, collection Bayou, Gallimard
 La Mauvaise Pente, 2006 - Sélection officielle du Festival d'Angoulême 2007
 Pour quelques coups de baguette, 2007
 L'Inconséquent, 2008
@@ -564,7 +583,7 @@
 Cigish ou le maître du je , Ankama, 2015
 Cruelle, Dargaud, 2016
 Carnage, Mauvaise foi éditions, 2019
-Pucelle[3] , Dargaud
+Pucelle , Dargaud
 Débutante, mai 2020
 Confirmée, mai 2021
 Jumelle, Dargaud
@@ -578,7 +597,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Florence_Dupr%C3%A9_la_Tour</t>
+          <t>Florence_Dupré_la_Tour</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -596,9 +615,11 @@
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2020 : Prix Artémisia spécial du jury pour Carnage[7]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2020 : Prix Artémisia spécial du jury pour Carnage
 2020 : Prix Roland Topor de dessin qui écrit
 2021 :
 Prix Bédélys Etranger : mention spéciale du Jury
@@ -613,7 +634,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Florence_Dupr%C3%A9_la_Tour</t>
+          <t>Florence_Dupré_la_Tour</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -631,9 +652,11 @@
           <t>Exposition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>mars 2023 : Pop Women Festival[4], Reims</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>mars 2023 : Pop Women Festival, Reims</t>
         </is>
       </c>
     </row>
